--- a/DataArchive/TestCases.xlsx
+++ b/DataArchive/TestCases.xlsx
@@ -1,23 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19320" windowHeight="6330"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DatePickerUC" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>TC_Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>Click on Widget</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>Click on date picker</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete autosignIn </t>
+  </si>
+  <si>
+    <t>Navigate to datePicker page</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Navigate to webpage and verify page title</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +82,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +113,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,13 +434,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" customFormat="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" customFormat="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" customFormat="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" customFormat="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" customFormat="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="240" verticalDpi="240" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DataArchive/TestCases.xlsx
+++ b/DataArchive/TestCases.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19320" windowHeight="6330"/>
+    <workbookView windowHeight="6330" windowWidth="19320" xWindow="0" yWindow="2520"/>
   </bookViews>
   <sheets>
-    <sheet name="DatePickerUC" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="DatePickerUC" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <oleSize ref="A1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
     <t>TC_001</t>
   </si>
@@ -64,16 +64,20 @@
     <t>Navigate to webpage and verify page title</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -130,22 +134,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -154,10 +158,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -313,7 +317,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -322,13 +326,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -338,7 +342,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -347,7 +351,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -356,7 +360,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -366,12 +370,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -402,7 +406,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -421,7 +425,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -434,19 +438,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1">
+    <row customFormat="1" r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -460,7 +464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1">
+    <row customFormat="1" r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,10 +475,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" customFormat="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -488,7 +492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" customFormat="1">
+    <row customFormat="1" r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -499,10 +503,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" customFormat="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -514,7 +518,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" customFormat="1">
+    <row customFormat="1" r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -526,34 +530,34 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" customFormat="1">
+    <row customFormat="1" r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" customFormat="1">
+    <row customFormat="1" r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" customFormat="1">
+    <row customFormat="1" r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" customFormat="1">
+    <row customFormat="1" r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" customFormat="1"/>
+    <row customFormat="1" r="11" spans="1:4"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="240" verticalDpi="240" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="240" orientation="portrait" r:id="rId1" verticalDpi="240"/>
 </worksheet>
 </file>
 
@@ -565,7 +569,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -577,6 +581,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/DataArchive/TestCases.xlsx
+++ b/DataArchive/TestCases.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>TC_001</t>
   </si>
@@ -62,15 +62,6 @@
   </si>
   <si>
     <t>Navigate to webpage and verify page title</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
 </sst>
 </file>
@@ -441,7 +432,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -474,9 +465,7 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row customFormat="1" r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -488,9 +477,7 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row customFormat="1" r="4" spans="1:4">
       <c r="A4" s="1" t="s">
@@ -502,9 +489,7 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row customFormat="1" r="5" spans="1:4">
       <c r="A5" s="1" t="s">

--- a/DataArchive/TestCases.xlsx
+++ b/DataArchive/TestCases.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="6330" windowWidth="19320" xWindow="0" yWindow="2520"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19320" windowHeight="6330"/>
   </bookViews>
   <sheets>
-    <sheet name="DatePickerUC" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="DatePickerUC" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <oleSize ref="A1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>TC_001</t>
   </si>
@@ -62,13 +62,15 @@
   </si>
   <si>
     <t>Navigate to webpage and verify page title</t>
+  </si>
+  <si>
+    <t>skipped</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -125,22 +127,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -149,10 +151,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -308,7 +310,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -317,13 +319,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -333,7 +335,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -342,7 +344,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,7 +353,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -361,12 +363,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -397,7 +399,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -416,7 +418,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -429,19 +431,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="40.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" spans="1:4">
+    <row r="1" spans="1:4" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -455,7 +457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" spans="1:4">
+    <row r="2" spans="1:4" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +469,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row customFormat="1" r="3" spans="1:4">
+    <row r="3" spans="1:4" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -475,11 +477,11 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row customFormat="1" r="4" spans="1:4">
+    <row r="4" spans="1:4" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -491,7 +493,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row customFormat="1" r="5" spans="1:4">
+    <row r="5" spans="1:4" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -503,7 +505,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row customFormat="1" r="6" spans="1:4">
+    <row r="6" spans="1:4" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -511,38 +513,38 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row customFormat="1" r="7" spans="1:4">
+    <row r="7" spans="1:4" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row customFormat="1" r="8" spans="1:4">
+    <row r="8" spans="1:4" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row customFormat="1" r="9" spans="1:4">
+    <row r="9" spans="1:4" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row customFormat="1" r="10" spans="1:4">
+    <row r="10" spans="1:4" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row customFormat="1" r="11" spans="1:4"/>
+    <row r="11" spans="1:4" customFormat="1"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="240" orientation="portrait" r:id="rId1" verticalDpi="240"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="240" verticalDpi="240" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -554,7 +556,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -566,6 +568,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataArchive/TestCases.xlsx
+++ b/DataArchive/TestCases.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19320" windowHeight="6330"/>
+    <workbookView windowHeight="6330" windowWidth="19320" xWindow="0" yWindow="2520"/>
   </bookViews>
   <sheets>
-    <sheet name="DatePickerUC" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="DatePickerUC" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <oleSize ref="A1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>TC_001</t>
   </si>
@@ -58,10 +58,13 @@
     <t>Navigate to datePicker page</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>Navigate to webpage and verify page title</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
   <si>
     <t>skipped</t>
@@ -71,6 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -127,22 +131,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -151,10 +155,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -310,7 +314,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -319,13 +323,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -335,7 +339,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -344,7 +348,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -353,7 +357,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -363,12 +367,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -399,7 +403,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -418,7 +422,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -431,19 +435,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1">
+    <row customFormat="1" r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -457,94 +461,96 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1">
+    <row customFormat="1" r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" customFormat="1">
+    </row>
+    <row customFormat="1" r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" customFormat="1">
+    </row>
+    <row customFormat="1" r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" customFormat="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" customFormat="1">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row customFormat="1" r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" customFormat="1">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" customFormat="1">
+    <row customFormat="1" r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" customFormat="1">
+    <row customFormat="1" r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" customFormat="1">
+    <row customFormat="1" r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" customFormat="1"/>
+    <row customFormat="1" r="11" spans="1:4"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="240" verticalDpi="240" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="240" orientation="portrait" r:id="rId1" verticalDpi="240"/>
 </worksheet>
 </file>
 
@@ -556,7 +562,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -568,6 +574,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/DataArchive/TestCases.xlsx
+++ b/DataArchive/TestCases.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>TC_001</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>skipped</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,9 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
@@ -494,7 +499,9 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
@@ -506,7 +513,9 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
@@ -518,7 +527,9 @@
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>

--- a/DataArchive/TestCases.xlsx
+++ b/DataArchive/TestCases.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>TC_001</t>
   </si>

--- a/DataArchive/TestCases.xlsx
+++ b/DataArchive/TestCases.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
   <si>
     <t>TC_001</t>
   </si>
@@ -441,7 +441,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/DataArchive/TestCases.xlsx
+++ b/DataArchive/TestCases.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>TC_001</t>
   </si>
@@ -441,7 +441,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -472,10 +472,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row customFormat="1" r="3" spans="1:4">

--- a/DataArchive/TestCases.xlsx
+++ b/DataArchive/TestCases.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>TC_001</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Navigate to webpage and verify page title</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>skipped</t>
@@ -441,7 +441,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -472,7 +472,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -489,7 +489,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row customFormat="1" r="4" spans="1:4">
@@ -503,7 +503,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row customFormat="1" r="5" spans="1:4">
@@ -517,7 +517,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row customFormat="1" r="6" spans="1:4">
@@ -531,7 +531,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row customFormat="1" r="7" spans="1:4">

--- a/DataArchive/TestCases.xlsx
+++ b/DataArchive/TestCases.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>TC_001</t>
   </si>
